--- a/data/output/topic_interpretations.xlsx
+++ b/data/output/topic_interpretations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akshayjain/Documents/GitHub/documentAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503479F8-3276-444B-BD48-81B57C5C1738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26CFF27-29AF-5B46-B144-16974A1FF3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="28600" windowHeight="15780" xr2:uid="{6DD4F887-69C2-F646-BE23-46662032B7FF}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>Topic</t>
   </si>
   <si>
-    <t>Intepretation</t>
-  </si>
-  <si>
     <t>False Arrest/ Force</t>
   </si>
   <si>
@@ -74,10 +71,13 @@
     <t>Cell Phone</t>
   </si>
   <si>
-    <t>Weapon/Drugs</t>
-  </si>
-  <si>
-    <t>Failure to Provide Information Or File Report</t>
+    <t>Failure to Provide Something</t>
+  </si>
+  <si>
+    <t>Weapon/Detainment/Drugs</t>
+  </si>
+  <si>
+    <t>Interpretation</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,7 +497,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="6"/>
@@ -517,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -527,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="7"/>
@@ -607,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="7"/>
@@ -617,7 +617,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="7"/>
@@ -647,7 +647,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
